--- a/biology/Zoologie/Azur_estival/Azur_estival.xlsx
+++ b/biology/Zoologie/Azur_estival/Azur_estival.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Celastrina neglecta
 L'Azur estival (Celastrina neglecta) est un insecte lépidoptère de la famille des Lycaenidae, de la sous-famille des Polyommatinae, du genre Celastrina.
@@ -512,12 +524,12 @@
           <t>Dénominations</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Celastrina neglecta a été nommé par Edwards en 1862.
-Synonyme :Lycaena neglecta Edwards, 1862; Cyaniris ladon neglecta ; Dyar, 1903[1].
-Noms vernaculaires
-L'Azur estival se nomme en anglais Summer Azure.
+Synonyme :Lycaena neglecta Edwards, 1862; Cyaniris ladon neglecta ; Dyar, 1903.
 </t>
         </is>
       </c>
@@ -543,15 +555,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Dénominations</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">L'Azur estival est un petit papillon d'une envergure de 23 à 29 mm, de couleur bleu violet pâle saupoudré de blanc qui présence un dimorphisme sexuel : le dessus chez le mâle présente uniquement une fine bordure marron ou gris foncé aux antérieures alors que chez la femelle la bordure est très large couvrant le tiers externe et le bord costal et que les postérieures présentent une ligne submarginale de taches marron.
-Le revers est gris pâle, orné de petites marques noires et d'une fine ligne submarginale en zigzag aux antérieures[2],[3]
-Chenille
-Les chenilles, vertes, parfois brun jaunâtre ou brun rougeâtre, sont ornées d'une bande plus foncée sur le milieu du dos[4]
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Azur estival se nomme en anglais Summer Azure.
 </t>
         </is>
       </c>
@@ -577,16 +592,15 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Période de vol et hivernation
-Il vole en deux ou trois générations de mi-juin à début septembre[4].
-Il hiverne au stade nymphal[2].
-Plantes hôtes
-Les plantes hôtes de sa chenille sont des cornouillers (Cornus), des spirées (Spiraea), des viornes Viburnum et le céanothe d'Amérique Ceanothus americanus[4].
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Azur estival est un petit papillon d'une envergure de 23 à 29 mm, de couleur bleu violet pâle saupoudré de blanc qui présence un dimorphisme sexuel : le dessus chez le mâle présente uniquement une fine bordure marron ou gris foncé aux antérieures alors que chez la femelle la bordure est très large couvrant le tiers externe et le bord costal et que les postérieures présentent une ligne submarginale de taches marron.
+Le revers est gris pâle, orné de petites marques noires et d'une fine ligne submarginale en zigzag aux antérieures,
 </t>
         </is>
       </c>
@@ -612,16 +626,200 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Chenille</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les chenilles, vertes, parfois brun jaunâtre ou brun rougeâtre, sont ornées d'une bande plus foncée sur le milieu du dos
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Azur_estival</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Azur_estival</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Période de vol et hivernation</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il vole en deux ou trois générations de mi-juin à début septembre.
+Il hiverne au stade nymphal.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Azur_estival</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Azur_estival</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôtes de sa chenille sont des cornouillers (Cornus), des spirées (Spiraea), des viornes Viburnum et le céanothe d'Amérique Ceanothus americanus.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Azur_estival</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Azur_estival</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'Azur estival est présent dans tout le centre et l'est de l'Amérique du Nord, dans tout le sud du Canada du sud de la Saskatchewan à la Nouvelle-Écosse et aux États-Unis dans tout le centre et l'est, la limite se trouvant dans l'est du Montana, du Wyoming, du Colorado, de l'Oklahoma et du Texas[3],[4].
-Biotope
-Ses habitats sont variés : champs, bois clairs, jardins, bords de routes.
-Protection
-Pas de statut de protection particulier[3].
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Azur estival est présent dans tout le centre et l'est de l'Amérique du Nord, dans tout le sud du Canada du sud de la Saskatchewan à la Nouvelle-Écosse et aux États-Unis dans tout le centre et l'est, la limite se trouvant dans l'est du Montana, du Wyoming, du Colorado, de l'Oklahoma et du Texas,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Azur_estival</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Azur_estival</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ses habitats sont variés : champs, bois clairs, jardins, bords de routes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Azur_estival</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Azur_estival</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
         </is>
       </c>
